--- a/TiMeS_regression_info_processed.xlsx
+++ b/TiMeS_regression_info_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3F32D-8893-B544-9A2A-A2908406E93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95BDEF-8F23-9549-99FD-A1C5744F3964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <t>SMN_inter_FC</t>
   </si>
   <si>
-    <t>StudyID</t>
+    <t>study_id</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="A1:BJ345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/TiMeS_regression_info_processed.xlsx
+++ b/TiMeS_regression_info_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95BDEF-8F23-9549-99FD-A1C5744F3964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77DCC0-22D5-0647-A698-31E5BA7C1518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <t>SMN_inter_FC</t>
   </si>
   <si>
-    <t>study_id</t>
+    <t>subject_id</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="A1:BJ345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/TiMeS_regression_info_processed.xlsx
+++ b/TiMeS_regression_info_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77DCC0-22D5-0647-A698-31E5BA7C1518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2380C-D527-7645-AF83-8F89F7141574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <t>SMN_inter_FC</t>
   </si>
   <si>
-    <t>subject_id</t>
+    <t>subject_full_id</t>
   </si>
 </sst>
 </file>
